--- a/Openmrs/Datavalues.xlsx
+++ b/Openmrs/Datavalues.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:G10"/>
+  <oleSize ref="A1:P3"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Fname</t>
   </si>
@@ -74,7 +74,10 @@
     <t>Male</t>
   </si>
   <si>
-    <t>April</t>
+    <t>January</t>
+  </si>
+  <si>
+    <t>1993</t>
   </si>
   <si>
     <t>SSS</t>
@@ -92,6 +95,12 @@
     <t>HHH</t>
   </si>
   <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
     <t>parent</t>
   </si>
   <si>
@@ -101,6 +110,12 @@
     <t>VVV</t>
   </si>
   <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>ZZZ</t>
   </si>
   <si>
@@ -108,6 +123,12 @@
   </si>
   <si>
     <t>CCC</t>
+  </si>
+  <si>
+    <t>678901</t>
+  </si>
+  <si>
+    <t>2244668800</t>
   </si>
   <si>
     <t>Patient</t>
@@ -133,22 +154,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,9 +177,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,9 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,60 +284,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,29 +292,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,13 +306,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,48 +474,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -352,120 +487,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,8 +503,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +520,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,15 +577,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -561,27 +597,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,135 +620,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,19 +1076,12 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="15.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="10.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="9.71428571428571" customWidth="1"/>
-    <col min="14" max="14" width="12.2857142857143" customWidth="1"/>
-    <col min="15" max="15" width="12.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="11.7142857142857"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1133,32 +1150,32 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2">
-        <v>1993</v>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2">
-        <v>12345</v>
-      </c>
-      <c r="N2">
-        <v>9999999999</v>
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
         <v>17</v>
@@ -1166,10 +1183,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1178,37 +1195,37 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>2001</v>
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="M3">
-        <v>67890</v>
-      </c>
-      <c r="N3">
-        <v>2244668800</v>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
